--- a/biology/Zoologie/Diamant_phaéton/Diamant_phaéton.xlsx
+++ b/biology/Zoologie/Diamant_phaéton/Diamant_phaéton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diamant_pha%C3%A9ton</t>
+          <t>Diamant_phaéton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neochmia phaeton
 Le Diamant phaéton (Neochmia phaeton) est une espèce de passereau de la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diamant_pha%C3%A9ton</t>
+          <t>Diamant_phaéton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire du nord de l'Australie et du sud de la Nouvelle-Guinée.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diamant_pha%C3%A9ton</t>
+          <t>Diamant_phaéton</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve couramment dans les savanes humides, et les zones arbustives humides subtropicales et tropicales.
 On le trouve couramment aussi dans les forêts tempérées et les habitats de savane sèche. On peut également le trouver dans les forêts sèches et les mangroves dans les régions tropicales.
